--- a/medicine/Psychotrope/Brasserie_Caulier/Brasserie_Caulier.xlsx
+++ b/medicine/Psychotrope/Brasserie_Caulier/Brasserie_Caulier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie Caulier est une brasserie familiale située à Péruwelz, en Belgique dans la province de Hainaut. On y brasse, entre autres, la bière Bon Secours.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Caulier, un ancien mineur, crée en 1933 une entreprise de distribution de bières[1]. En 1980, son petit-fils Roger emménage dans les anciens locaux de la tannerie Kensier à Péruwelz[2]. En 1995, il commence à brasser ses propres bières avec du matériel récupéré dans d'autres brasseries comme celle de Haacht ou la brasserie De Nève à Schepdaal. Il connaît rapidement le succès grâce à la production de la bière Bon Secours qu'il commercialise en bouteilles de style rétro avec bouchon mécanique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Caulier, un ancien mineur, crée en 1933 une entreprise de distribution de bières. En 1980, son petit-fils Roger emménage dans les anciens locaux de la tannerie Kensier à Péruwelz. En 1995, il commence à brasser ses propres bières avec du matériel récupéré dans d'autres brasseries comme celle de Haacht ou la brasserie De Nève à Schepdaal. Il connaît rapidement le succès grâce à la production de la bière Bon Secours qu'il commercialise en bouteilles de style rétro avec bouchon mécanique.
 Toujours dans la lignée familiale, c’est aujourd’hui Laurent, Bertrand et Vincent qui ont rejoint l’aventure, pour  le  plus  grand  bonheur  de  leurs  parents. Plus  que  jamais  engagés  dans l’entreprise, ils continuent d’honorer les traditions de la brasserie, sans pour autant en oublier les enjeux et objectifs actuels.
 </t>
         </is>
@@ -544,55 +558,56 @@
           <t>Des bières de caractère, naturelles et vivantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fort de son succès et de son expertise dans le domaine, la famille a lancé en 2012 et en 2017deux nouvelles bières, en plus de la traditionnelle Bon Secours : respectivement la Paix Dieu et la Stuut. Trois bières brassées de manière artisanale selon une méthode unique dans la même salle de brassage qu’à l’origine, préservant les précieux breuvages de filtration, de pasteurisation et de saturation au gaz carbonique. Grâce à une fermentation directe en bouteille, les bières de la brasserie Caulier sont dites « vivantes » puisqu’elles vont continuer à évoluer au fil du temps. Loin pour autant de proposer des produits approximatifs, les bières sont alors stockées en chambre chaude pour maintenir un niveau de qualité toujours optimal. Quant à leur composition, les bières de la brasserie Caulier se veulent naturelles grâce à des ingrédients d’une qualité remarquable sélectionnés avec soin auprès de fournisseurs locaux.
-Bon Secours
-Première bière élaborée par Roger et Linda, la Bon Secours est la bière emblématique de la brasserie Caulier. Bière naturelle et vivante et à la robe dorée, la Bon Secours est àla fois puissante et rafraichissante. Avec six  référencesdans la gamme, la Bon Secours propose une expérience de dégustation axée sur le naturel et l’authenticité. Primée en2020  et  2021, entre  autres, au  prestigieux  concoursBrussels Beer Challenge, Bon Secours est une valeur sûrede la brasserie.
-La Bon Secours se décline en sept produits[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brasserie_Caulier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_Caulier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Des bières de caractère, naturelles et vivantes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bon Secours</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Première bière élaborée par Roger et Linda, la Bon Secours est la bière emblématique de la brasserie Caulier. Bière naturelle et vivante et à la robe dorée, la Bon Secours est àla fois puissante et rafraichissante. Avec six  référencesdans la gamme, la Bon Secours propose une expérience de dégustation axée sur le naturel et l’authenticité. Primée en2020  et  2021, entre  autres, au  prestigieux  concoursBrussels Beer Challenge, Bon Secours est une valeur sûrede la brasserie.
+La Bon Secours se décline en sept produits :
 La Bon Secours Tradition (blonde - 8% alc.) ;
 La Bon Secours Héritage (ambrée - 8% alc.) ;
 La Bon Secours Prestige (triple - 9% alc.) ;
 La Bon Secours Emérite (brune - 8% alc.) ;
 La Bon Secours Myrtille (fruitée - 6,4% alc.) ;
 La Bon Secours 4 Houblons (IPA - 5,9% alc.) ;
-La Bon Secours de Noël (blonde - 10% alc.) ;
-Paix Dieu
-Véritable succès de la brasserie, la bière d’abbaye Paix Dieu cache elle aussi une histoire fascinante. Autrefois brassée  à  l’abbaye  de  Paix  Dieu  par  des sœurs cisterciennes, la Paix Dieu était brassée en respectant le calendrier lunaire. Aujourd’hui, la  Paix Dieu  est une triple onctueuse et originale jusqu’à son verre biseauté faisant référence à la lune. Parce qu’une bière exceptionnelle se déguste dans un verre exceptionnel, le verre Paix Dieu est façonné selon une méthode 100% artisanale pour un résultat unique et surprenant.
-Stuut
-Pour  mettre  à  l’honneur  la créativité  de  leurs  Maîtres Brasseurs (Elisabeth et Guillaume), la Brasserie Caulier lance  une  nouvelle bière  éphémère issus  de  brassins éphémères eux-aussi, sous le nom de Stuut. Avec cette gamme, la brasserie se voit offrir l’occasion de bousculer les  codes  et  de  viser  une  clientèle  différente, à  la recherche  d’associations  originales  et  de bières innovantes. En 2022, la Stuut se réinvente sous le slogan «le  savoir-faire  au  service  de  l’innovation », avec  un nouveau packaging, une nouvelle identité plus moderne et surtout  des saveurs  toujours  plus  originales, comme mirabelle  et  hibiscus  pour  la  Stuut  Mirabiscus. Une gamme  qui  permet  de jouer  littéralement  avec  les traditions ! En phase avec son temps et surtout avec ses valeurs, les bières Stuut seront disponibles en cannettes plus faciles à transporter, mais aussi plus adaptées à la cible plus jeune visée avec ce concept. Pour les adeptes de la traditionnelle pression, elle sera aussi disponible au fût dans certains établissements de qualité.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Brasserie_Caulier</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brasserie_Caulier</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Anecdote</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une bouteille de 12 litres de Vieille Bon Secours, stockée pendant 10 ans par un restaurant londonien, est considérée comme la bière la plus chère du monde avec un prix de vente de 700£ (plus de 832€)[4].
-</t>
+La Bon Secours de Noël (blonde - 10% alc.) ;</t>
         </is>
       </c>
     </row>
@@ -617,10 +632,119 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Des bières de caractère, naturelles et vivantes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Paix Dieu</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Véritable succès de la brasserie, la bière d’abbaye Paix Dieu cache elle aussi une histoire fascinante. Autrefois brassée  à  l’abbaye  de  Paix  Dieu  par  des sœurs cisterciennes, la Paix Dieu était brassée en respectant le calendrier lunaire. Aujourd’hui, la  Paix Dieu  est une triple onctueuse et originale jusqu’à son verre biseauté faisant référence à la lune. Parce qu’une bière exceptionnelle se déguste dans un verre exceptionnel, le verre Paix Dieu est façonné selon une méthode 100% artisanale pour un résultat unique et surprenant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brasserie_Caulier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_Caulier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Des bières de caractère, naturelles et vivantes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Stuut</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour  mettre  à  l’honneur  la créativité  de  leurs  Maîtres Brasseurs (Elisabeth et Guillaume), la Brasserie Caulier lance  une  nouvelle bière  éphémère issus  de  brassins éphémères eux-aussi, sous le nom de Stuut. Avec cette gamme, la brasserie se voit offrir l’occasion de bousculer les  codes  et  de  viser  une  clientèle  différente, à  la recherche  d’associations  originales  et  de bières innovantes. En 2022, la Stuut se réinvente sous le slogan «le  savoir-faire  au  service  de  l’innovation », avec  un nouveau packaging, une nouvelle identité plus moderne et surtout  des saveurs  toujours  plus  originales, comme mirabelle  et  hibiscus  pour  la  Stuut  Mirabiscus. Une gamme  qui  permet  de jouer  littéralement  avec  les traditions ! En phase avec son temps et surtout avec ses valeurs, les bières Stuut seront disponibles en cannettes plus faciles à transporter, mais aussi plus adaptées à la cible plus jeune visée avec ce concept. Pour les adeptes de la traditionnelle pression, elle sera aussi disponible au fût dans certains établissements de qualité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brasserie_Caulier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_Caulier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Anecdote</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une bouteille de 12 litres de Vieille Bon Secours, stockée pendant 10 ans par un restaurant londonien, est considérée comme la bière la plus chère du monde avec un prix de vente de 700£ (plus de 832€).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Brasserie_Caulier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_Caulier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Des engagements pour l’avenir</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En plus d’agir sur les traditions, la brasserie Caulier souhaite aussi agir sur son empreinte carbone, notamment au niveau du packaging. Avec la Stuut, bière en cannette en aluminium recyclable à l’infini, la brasserie prouve qu’il est possible d’allier plaisir et conscience, sans pour autant en se restreindre au niveau de la créativité ! Plus classiques mais tout autant recyclables, les traditionnelles Bon Secours et Paix Dieu sont, elles aussi, gages d’éco responsabilité grâce à leurs bouteilles consignées et leurs bouchons mécaniques.Mais la brasserie familiale ne s’arrête pas là. Désireuse de garder son identité hennuyère si chère à son histoire, la brasserie soutient Péruwelz dans son développement tout en continuant de cultiver son ancrage local.
 </t>
